--- a/test_data/document/memberImport.xlsx
+++ b/test_data/document/memberImport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_test_project\test_data\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>大股东帐号</t>
   </si>
@@ -96,9 +96,6 @@
     <t>example1@qq.com</t>
   </si>
   <si>
-    <t>12.34</t>
-  </si>
-  <si>
     <t>是</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>exampleweixin1</t>
   </si>
   <si>
-    <t>工商银行</t>
-  </si>
-  <si>
     <t>山西省</t>
   </si>
   <si>
@@ -126,39 +120,6 @@
     <t>帐号备注1</t>
   </si>
   <si>
-    <t>aaa123</t>
-  </si>
-  <si>
-    <t>0123456789</t>
-  </si>
-  <si>
-    <t>example2@qq.com</t>
-  </si>
-  <si>
-    <t>23.45</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>2000/01/02</t>
-  </si>
-  <si>
-    <t>exampleweixin2</t>
-  </si>
-  <si>
-    <t>建设银行</t>
-  </si>
-  <si>
-    <t>00123456789</t>
-  </si>
-  <si>
-    <t>帐号备注2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> QA_Test_A </t>
   </si>
   <si>
@@ -171,22 +132,28 @@
     <t>QA_Test_D</t>
   </si>
   <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>QA_autoTest</t>
-  </si>
-  <si>
     <t>+8881234567890</t>
   </si>
   <si>
-    <t>+8880123456789</t>
-  </si>
-  <si>
-    <t>QATEST191129</t>
-  </si>
-  <si>
-    <t>QATEST191130</t>
+    <t>a123456</t>
+  </si>
+  <si>
+    <t>𤯥</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>农业银行</t>
+  </si>
+  <si>
+    <t>DS_tes_12225</t>
+  </si>
+  <si>
+    <t>QA_test</t>
+  </si>
+  <si>
+    <t>DS_tes_1225</t>
   </si>
 </sst>
 </file>
@@ -512,7 +479,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,31 +571,31 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>23</v>
@@ -637,99 +604,99 @@
         <v>22</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/document/memberImport.xlsx
+++ b/test_data/document/memberImport.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>大股东帐号</t>
   </si>
@@ -87,9 +87,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>a12345</t>
-  </si>
-  <si>
     <t>1234567890</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>99876543210</t>
   </si>
   <si>
-    <t>帐号备注1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> QA_Test_A </t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>+8881234567890</t>
   </si>
   <si>
-    <t>a123456</t>
-  </si>
-  <si>
     <t>𤯥</t>
   </si>
   <si>
@@ -147,13 +138,16 @@
     <t>农业银行</t>
   </si>
   <si>
-    <t>DS_tes_12225</t>
-  </si>
-  <si>
-    <t>QA_test</t>
-  </si>
-  <si>
-    <t>DS_tes_1225</t>
+    <t>memerImport</t>
+  </si>
+  <si>
+    <t>b12345</t>
+  </si>
+  <si>
+    <t>DS_import_0109</t>
+  </si>
+  <si>
+    <t>b123456</t>
   </si>
 </sst>
 </file>
@@ -479,7 +473,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,133 +565,77 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="R2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:U1"/>
